--- a/evaluation/fairness_measure_based/OLS_Regression_Feature_Analysis_KS_Statistic_of_sensitive_attribute.xlsx
+++ b/evaluation/fairness_measure_based/OLS_Regression_Feature_Analysis_KS_Statistic_of_sensitive_attribute.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,56 +458,64 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>recall@5</t>
+          <t>Space Size</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2085335184193966</v>
+        <v>0.2193646861138265</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1120799192094604</v>
-      </c>
-      <c r="D2" t="inlineStr"/>
+        <v>0.0152872891932758</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>mrr@5</t>
+          <t>popularitypercentage@5</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1029796310720424</v>
+        <v>0.06471967804200016</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4472865091876792</v>
-      </c>
-      <c r="D3" t="inlineStr"/>
+        <v>0.0005887790407889936</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Space Size</t>
+          <t>Shape</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.07845567753085991</v>
+        <v>0.04966759516380477</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7424856124577353</v>
+        <v>0.05757717470123274</v>
       </c>
       <c r="D4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>popularitypercentage@5</t>
+          <t>Model Name_NFCF</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.07401643806385681</v>
+        <v>0.04383638184812029</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0002444958844099705</v>
+        <v>1.142416560970309e-19</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -518,176 +526,182 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Average Popularity</t>
+          <t>const</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.07094551313325835</v>
+        <v>0.04371751372961163</v>
       </c>
       <c r="C6" t="n">
-        <v>0.03287660496528863</v>
+        <v>9.466277138148097e-05</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>***</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Standart Deviation of Rating</t>
+          <t>Density</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.05004981498701332</v>
+        <v>0.03360910927831297</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2813020012867904</v>
-      </c>
-      <c r="D7" t="inlineStr"/>
+        <v>0.03095750127864283</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Skewness of Long Tail Items</t>
+          <t>Sensitive Feature_Age</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.04932918474365151</v>
+        <v>0.0269752576104389</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2842851764170615</v>
-      </c>
-      <c r="D8" t="inlineStr"/>
+        <v>2.568771894883964e-06</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Kurtosis of Rating</t>
+          <t>Sensitive Feature_Gender</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.04876491327676874</v>
+        <v>0.01674225611917259</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2186055714690311</v>
-      </c>
-      <c r="D9" t="inlineStr"/>
+        <v>0.003390747250986394</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Shape</t>
+          <t>Skewness of Long Tail Items</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.03840725472461601</v>
+        <v>0.0159128299260811</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2917313568838281</v>
+        <v>0.06893517326037438</v>
       </c>
       <c r="D10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Model Name_NFCF</t>
+          <t>Model Name_FairGo_PMF</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.03817741486556928</v>
+        <v>0.01005526863772688</v>
       </c>
       <c r="C11" t="n">
-        <v>0.001589425654765097</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>**</t>
-        </is>
-      </c>
+        <v>0.1545930124786203</v>
+      </c>
+      <c r="D11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Skewness of Rating</t>
+          <t>Skewness of Popularity Bias</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.03498895490810176</v>
+        <v>0.00992999628696477</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4509902473705587</v>
+        <v>0.170516261124862</v>
       </c>
       <c r="D12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>const</t>
+          <t>Gini User</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.02647310874452467</v>
+        <v>0.004292983627971045</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5597107742070456</v>
+        <v>0.5854126120788827</v>
       </c>
       <c r="D13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Skewness of Popularity Bias</t>
+          <t>Standart Deviation of Rating</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.02440991422149566</v>
+        <v>0.003766251894999561</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1646246040981191</v>
+        <v>0.6755376254327803</v>
       </c>
       <c r="D14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Sensitive Feature_Age</t>
+          <t>Model Name_FOCF</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.01840739946867707</v>
+        <v>0.002627096292101325</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4178105124542173</v>
+        <v>0.681670851806548</v>
       </c>
       <c r="D15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Sensitive Feature_Gender</t>
+          <t>Dataset_ml1m</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.008065709275824718</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.7226967054920941</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Number of Ratings</t>
+          <t>Mean Rating</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.007204891651468731</v>
+        <v>-1.559096276018994e-05</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9743636017351043</v>
+        <v>0.9985284736861938</v>
       </c>
       <c r="D17" t="inlineStr"/>
     </row>
@@ -698,294 +712,136 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.006044815517877884</v>
+        <v>-0.001211181749333707</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5034125892442785</v>
+        <v>0.8826223664364218</v>
       </c>
       <c r="D18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Gini User</t>
+          <t>hit@5</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.004329177479385687</v>
+        <v>-0.001926419723133239</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6527740053549416</v>
+        <v>0.9364687106629603</v>
       </c>
       <c r="D19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Model Name_FairGo_PMF</t>
+          <t>Average Popularity</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.0042140402064797</v>
+        <v>-0.004384397939749839</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7580761644625787</v>
+        <v>0.839781984950109</v>
       </c>
       <c r="D20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>hit@5</t>
+          <t>Model Name_PFCN_MLP</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.00274604293523345</v>
+        <v>-0.01280123304833849</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9713858709034157</v>
-      </c>
-      <c r="D21" t="inlineStr"/>
+        <v>0.02712027949282255</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Mean Rating</t>
+          <t>giniindex@5</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.001093603111412374</v>
+        <v>-0.01842174043375742</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9720496347730678</v>
+        <v>0.3437895860590765</v>
       </c>
       <c r="D22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Standart Deviation of Long Tail Items</t>
+          <t>Standart Deviation of Popularity Bias</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.000680293798350249</v>
+        <v>-0.0188970061963023</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9857223238218957</v>
+        <v>0.5519372944620504</v>
       </c>
       <c r="D23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Model Name_FOCF</t>
+          <t>Number of Items</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.0006133006141489095</v>
+        <v>-0.07583290820522565</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9604329814388491</v>
-      </c>
-      <c r="D24" t="inlineStr"/>
+        <v>3.401837841551512e-05</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Dataset_ml1m</t>
+          <t>Number of Ratings</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
-      </c>
-      <c r="C25" t="inlineStr"/>
+        <v>-0.07729721904840853</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.2915826553592618</v>
+      </c>
       <c r="D25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Rating per Item</t>
+          <t>Number of Users</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-0.005684013947223343</v>
+        <v>-0.1619339509935277</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9692003910961839</v>
-      </c>
-      <c r="D26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Average Long Tail Items</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>-0.005816783764891453</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0.8887802069990391</v>
-      </c>
-      <c r="D27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Rating per User</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>-0.01424710120798041</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0.8892945318707883</v>
-      </c>
-      <c r="D28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Model Name_PFCN_MLP</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>-0.01653164694170428</v>
-      </c>
-      <c r="C29" t="n">
-        <v>0.1780577110432532</v>
-      </c>
-      <c r="D29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Kurtosis of Popularity Bias</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>-0.02481225826956645</v>
-      </c>
-      <c r="C30" t="n">
-        <v>0.07889851002034592</v>
-      </c>
-      <c r="D30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>giniindex@5</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>-0.02502727426549012</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0.2109065966236983</v>
-      </c>
-      <c r="D31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Density</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>-0.03069074795581831</v>
-      </c>
-      <c r="C32" t="n">
-        <v>0.4819168635750349</v>
-      </c>
-      <c r="D32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Kurtosis of Long Tail Items</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>-0.03905533773126349</v>
-      </c>
-      <c r="C33" t="n">
-        <v>0.4251985713630851</v>
-      </c>
-      <c r="D33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Gini Item</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>-0.04984465340082403</v>
-      </c>
-      <c r="C34" t="n">
-        <v>0.006953516626436029</v>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>**</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Number of Items</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>-0.06331862016576921</v>
-      </c>
-      <c r="C35" t="n">
-        <v>0.4938550883956412</v>
-      </c>
-      <c r="D35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Standart Deviation of Popularity Bias</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>-0.07987403324742777</v>
-      </c>
-      <c r="C36" t="n">
-        <v>0.06628048388245333</v>
-      </c>
-      <c r="D36" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Number of Users</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>-0.1017917885195137</v>
-      </c>
-      <c r="C37" t="n">
-        <v>0.5158505137634701</v>
-      </c>
-      <c r="D37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>ndcg@5</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>-0.3257926011430082</v>
-      </c>
-      <c r="C38" t="n">
-        <v>0.136649249941284</v>
-      </c>
-      <c r="D38" t="inlineStr"/>
+        <v>1.771708982446884e-05</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/evaluation/fairness_measure_based/OLS_Regression_Feature_Analysis_KS_Statistic_of_sensitive_attribute.xlsx
+++ b/evaluation/fairness_measure_based/OLS_Regression_Feature_Analysis_KS_Statistic_of_sensitive_attribute.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,10 +462,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>294068422868.8671</v>
+        <v>239193497139.0345</v>
       </c>
       <c r="C2" t="n">
-        <v>0.09761182058703557</v>
+        <v>0.1019741472482919</v>
       </c>
       <c r="D2" t="inlineStr"/>
     </row>
@@ -476,10 +476,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>294068422868.8642</v>
+        <v>239193497139.0316</v>
       </c>
       <c r="C3" t="n">
-        <v>0.09761182058703903</v>
+        <v>0.1019741472482961</v>
       </c>
       <c r="D3" t="inlineStr"/>
     </row>
@@ -490,34 +490,30 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.07954306061924464</v>
+        <v>0.08210066301593774</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001098841698301942</v>
+        <v>0.0007592969697213953</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>***</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Average Long Tail Items</t>
+          <t>Number of Ratings</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.04286153765417615</v>
+        <v>0.05154663389557718</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04235156653475983</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
+        <v>0.07701007195781036</v>
+      </c>
+      <c r="D5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -526,10 +522,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.04010548682775571</v>
+        <v>0.04059967824775728</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1123891839674568</v>
+        <v>0.1085399030224022</v>
       </c>
       <c r="D6" t="inlineStr"/>
     </row>
@@ -540,10 +536,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.03470999535486131</v>
+        <v>0.03444029489632803</v>
       </c>
       <c r="C7" t="n">
-        <v>6.048809099827658e-06</v>
+        <v>7.288315429932837e-06</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -554,70 +550,70 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Number of Ratings</t>
+          <t>Standart Deviation of Rating</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.03282038623613764</v>
+        <v>0.007523902613199159</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2828403628958897</v>
+        <v>0.8270704719711039</v>
       </c>
       <c r="D8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Number of Items</t>
+          <t>Skewness of Long Tail Items</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02615121056494386</v>
+        <v>0.005697126672619022</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2720383376199356</v>
+        <v>0.6205421313343513</v>
       </c>
       <c r="D9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Skewness of Long Tail Items</t>
+          <t>Skewness of Popularity Bias</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.01587915453048714</v>
+        <v>0.003749251610095429</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2057757595155374</v>
+        <v>0.7510320042011684</v>
       </c>
       <c r="D10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Standart Deviation of Rating</t>
+          <t>Shape</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.0008063890029250988</v>
+        <v>0.003187503775549111</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9814194224561671</v>
+        <v>0.8664217215976106</v>
       </c>
       <c r="D11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Skewness of Popularity Bias</t>
+          <t>Number of Items</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.002608467611551119</v>
+        <v>-0.007983051816839854</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8306889584227469</v>
+        <v>0.6374402011624976</v>
       </c>
       <c r="D12" t="inlineStr"/>
     </row>
@@ -628,56 +624,60 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.004184116984523522</v>
+        <v>-0.01231460008971608</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8351732826769904</v>
+        <v>0.5321033930762189</v>
       </c>
       <c r="D13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Shape</t>
+          <t>Gini User</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.02122286020119827</v>
+        <v>-0.01841455690641779</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3438080066599235</v>
+        <v>0.2769640088629442</v>
       </c>
       <c r="D14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Gini User</t>
+          <t>Rating per User</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.02537825339698782</v>
+        <v>-0.03484573218988005</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1415789040889452</v>
-      </c>
-      <c r="D15" t="inlineStr"/>
+        <v>0.002329366217948375</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Rating per User</t>
+          <t>Gini Item</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.03101759945075054</v>
+        <v>-0.0652475888957687</v>
       </c>
       <c r="C16" t="n">
-        <v>0.007458541668815973</v>
+        <v>0.01075948738669268</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>*</t>
         </is>
       </c>
     </row>
@@ -688,128 +688,114 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.04275810995324411</v>
+        <v>-0.06617468937354888</v>
       </c>
       <c r="C17" t="n">
-        <v>0.07177883278666367</v>
-      </c>
-      <c r="D17" t="inlineStr"/>
+        <v>0.001470578669124561</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Gini Item</t>
+          <t>Mean Rating</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.08699557263703303</v>
+        <v>-0.0935160124297808</v>
       </c>
       <c r="C18" t="n">
-        <v>0.001671658850771728</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>**</t>
-        </is>
-      </c>
+        <v>0.1501690903967529</v>
+      </c>
+      <c r="D18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Mean Rating</t>
+          <t>Model Name_FOCF</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.09108446746674176</v>
+        <v>-48308414865.68002</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1605579854212997</v>
+        <v>0.1019741472485182</v>
       </c>
       <c r="D19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Model Name_FOCF</t>
+          <t>Model Name_NFCF</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-60814503859.97287</v>
+        <v>-48308414865.68535</v>
       </c>
       <c r="C20" t="n">
-        <v>0.09761182058719974</v>
+        <v>0.1019741472484786</v>
       </c>
       <c r="D20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Model Name_NFCF</t>
+          <t>Model Name_PFCN_MLP</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-60814503859.97784</v>
+        <v>-48308414865.71384</v>
       </c>
       <c r="C21" t="n">
-        <v>0.09761182058717062</v>
+        <v>0.1019741472482771</v>
       </c>
       <c r="D21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Model Name_PFCN_MLP</t>
+          <t>Dataset_ml1m</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-60814503860.00658</v>
+        <v>-72043095917.7195</v>
       </c>
       <c r="C22" t="n">
-        <v>0.09761182058701287</v>
+        <v>0.1019741472486359</v>
       </c>
       <c r="D22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Dataset_ml1m</t>
+          <t>Dataset_BX</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-90421392746.97</v>
+        <v>-72043095917.80577</v>
       </c>
       <c r="C23" t="n">
-        <v>0.09761182058732448</v>
+        <v>0.1019741472482145</v>
       </c>
       <c r="D23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Dataset_BX</t>
+          <t>const</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-90421392747.0737</v>
+        <v>-118841986355.4826</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0976118205869322</v>
+        <v>0.1019741472484469</v>
       </c>
       <c r="D24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>const</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>-142832526261.7739</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0.09761182058714674</v>
-      </c>
-      <c r="D25" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/evaluation/fairness_measure_based/OLS_Regression_Feature_Analysis_KS_Statistic_of_sensitive_attribute.xlsx
+++ b/evaluation/fairness_measure_based/OLS_Regression_Feature_Analysis_KS_Statistic_of_sensitive_attribute.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,42 +458,50 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Sensitive Feature_Age</t>
+          <t>Dataset_ml1m</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>239193497139.0345</v>
+        <v>0.142523018491469</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1019741472482919</v>
-      </c>
-      <c r="D2" t="inlineStr"/>
+        <v>0.0002810123639869121</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Sensitive Feature_Gender</t>
+          <t>const</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>239193497139.0316</v>
+        <v>0.1171983036949425</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1019741472482961</v>
-      </c>
-      <c r="D3" t="inlineStr"/>
+        <v>1.183980216590531e-08</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Density</t>
+          <t>hit@5</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.08210066301593774</v>
+        <v>0.07191890217053779</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0007592969697213953</v>
+        <v>5.648749680759733e-42</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -504,62 +512,70 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Number of Ratings</t>
+          <t>Sensitive Feature_Age</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.05154663389557718</v>
+        <v>0.06348180075671321</v>
       </c>
       <c r="C5" t="n">
-        <v>0.07701007195781036</v>
-      </c>
-      <c r="D5" t="inlineStr"/>
+        <v>9.630691893452015e-09</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Difference between Sensitive Attribute Percentage</t>
+          <t>Sensitive Feature_Gender</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.04059967824775728</v>
+        <v>0.05371650293822867</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1085399030224022</v>
-      </c>
-      <c r="D6" t="inlineStr"/>
+        <v>1.243791173888325e-07</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>hit@5</t>
+          <t>Number of Ratings</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.03444029489632803</v>
+        <v>0.04980259260715879</v>
       </c>
       <c r="C7" t="n">
-        <v>7.288315429932837e-06</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.06832677370102994</v>
+      </c>
+      <c r="D7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Standart Deviation of Rating</t>
+          <t>Shape</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.007523902613199159</v>
+        <v>0.04358013532496434</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8270704719711039</v>
-      </c>
-      <c r="D8" t="inlineStr"/>
+        <v>0.01456126983058641</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -568,38 +584,38 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.005697126672619022</v>
+        <v>0.006332719966015069</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6205421313343513</v>
+        <v>0.5568743543234183</v>
       </c>
       <c r="D9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Skewness of Popularity Bias</t>
+          <t>Density</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.003749251610095429</v>
+        <v>0.0003115319403869665</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7510320042011684</v>
+        <v>0.9891719751403625</v>
       </c>
       <c r="D10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Shape</t>
+          <t>Skewness of Popularity Bias</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.003187503775549111</v>
+        <v>-0.004661368561782082</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8664217215976106</v>
+        <v>0.6705242402660319</v>
       </c>
       <c r="D11" t="inlineStr"/>
     </row>
@@ -610,70 +626,66 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.007983051816839854</v>
+        <v>-0.009269713847677424</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6374402011624976</v>
+        <v>0.5589072660799643</v>
       </c>
       <c r="D12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Number of Users</t>
+          <t>Standart Deviation of Rating</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.01231460008971608</v>
+        <v>-0.0229330413317579</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5321033930762189</v>
+        <v>0.4774989454340225</v>
       </c>
       <c r="D13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Gini User</t>
+          <t>Dataset_BX</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.01841455690641779</v>
+        <v>-0.02532471479652698</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2769640088629442</v>
+        <v>0.3496247962868581</v>
       </c>
       <c r="D14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Rating per User</t>
+          <t>Difference between Sensitive Attribute Percentage</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.03484573218988005</v>
+        <v>-0.02615873030948498</v>
       </c>
       <c r="C15" t="n">
-        <v>0.002329366217948375</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>**</t>
-        </is>
-      </c>
+        <v>0.2694602978698377</v>
+      </c>
+      <c r="D15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Gini Item</t>
+          <t>Gini User</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.0652475888957687</v>
+        <v>-0.03501135887587159</v>
       </c>
       <c r="C16" t="n">
-        <v>0.01075948738669268</v>
+        <v>0.02768153863024755</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -684,118 +696,92 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Rating per Item</t>
+          <t>Rating per User</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.06617468937354888</v>
+        <v>-0.04726367620400133</v>
       </c>
       <c r="C17" t="n">
-        <v>0.001470578669124561</v>
+        <v>1.402866360489754e-05</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>***</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Mean Rating</t>
+          <t>Rating per Item</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.0935160124297808</v>
+        <v>-0.047388489638724</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1501690903967529</v>
-      </c>
-      <c r="D18" t="inlineStr"/>
+        <v>0.01520275080376517</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Model Name_FOCF</t>
+          <t>Number of Users</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-48308414865.68002</v>
+        <v>-0.06578658500369618</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1019741472485182</v>
-      </c>
-      <c r="D19" t="inlineStr"/>
+        <v>0.0004021499541929435</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Model Name_NFCF</t>
+          <t>Mean Rating</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-48308414865.68535</v>
+        <v>-0.1431430193225595</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1019741472484786</v>
-      </c>
-      <c r="D20" t="inlineStr"/>
+        <v>0.01923769355072301</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Model Name_PFCN_MLP</t>
+          <t>Gini Item</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-48308414865.71384</v>
+        <v>-0.1521256500697991</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1019741472482771</v>
-      </c>
-      <c r="D21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Dataset_ml1m</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-72043095917.7195</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.1019741472486359</v>
-      </c>
-      <c r="D22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Dataset_BX</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>-72043095917.80577</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.1019741472482145</v>
-      </c>
-      <c r="D23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>const</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>-118841986355.4826</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.1019741472484469</v>
-      </c>
-      <c r="D24" t="inlineStr"/>
+        <v>6.437913051178076e-10</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
